--- a/Documentatie/Planning.xlsx
+++ b/Documentatie/Planning.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,21 +44,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,9 +105,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -131,9 +140,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,9 +192,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,13 +384,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>42783</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>42797</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>42804</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>42825</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentatie/Planning.xlsx
+++ b/Documentatie/Planning.xlsx
@@ -4,13 +4,21 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="710" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>vakantie</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,53 +393,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B10"/>
+  <dimension ref="B3:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>42776</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>42783</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>42790</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>42797</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>42804</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>42811</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>42818</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>42825</v>
       </c>

--- a/Documentatie/Planning.xlsx
+++ b/Documentatie/Planning.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="710" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="708" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>vakantie</t>
+  </si>
+  <si>
+    <t>Documentatie</t>
+  </si>
+  <si>
+    <t>Implementeren</t>
+  </si>
+  <si>
+    <t>Puntejes op de I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,23 +157,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -200,23 +192,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -396,30 +371,30 @@
   <dimension ref="B3:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>42776</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>42783</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>42790</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>42797</v>
       </c>
@@ -427,24 +402,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>42804</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>42811</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>42818</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>42825</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
